--- a/hardwave/BOM_主板_Schematic1_2024-05-27.xlsx
+++ b/hardwave/BOM_主板_Schematic1_2024-05-27.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A087B1-E659-459D-AD24-9CEC4EDC5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594654B9-74B0-4C4F-89C6-8FAB6EE4831A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="190">
   <si>
     <t>No.</t>
   </si>
@@ -245,313 +245,359 @@
     <t>22</t>
   </si>
   <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>AO3401A</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>SOT-23_L2.9-W1.3-P1.90-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>AO3400A</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>SOT-23-3_L2.9-W1.3-P1.90-LS2.4-BR</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10kΩ</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R0402</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>0Ω</t>
+  </si>
+  <si>
+    <t>R7,R17</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>R8,R18,R19,R21</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>200kΩ</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>100kΩ</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>220Ω</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>RN1,RN2</t>
+  </si>
+  <si>
+    <t>RES-ARRAY-SMD_0603-8P-L3.2-W1.6-BL</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>ST-1186SEM</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW-SMD_ST-1186SEM</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TF1</t>
+  </si>
+  <si>
+    <t>TF-SMD_TF-15-15</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>ESP32-S3(R8)</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>QFN-56_L7.0-W7.0-P0.40-TL-EP4.0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>W25Q256JVEIQ</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>WSON-8_L6.0-W8.0-P1.27-BL-EP</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>BMP280</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>LGA-8_L2.5-W2.0-P0.65_AMP6127</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>AXP173</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>QFN-32</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>NU1680</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>QFN-16_L3.0-W3.0-P0.50-TL-EP1.9</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>排公排母1*2</t>
+  </si>
+  <si>
+    <t>U11</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>4pin磁吸母座弯头</t>
+  </si>
+  <si>
+    <t>U12</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>LSM6DS3TR-C</t>
+  </si>
+  <si>
+    <t>U13</t>
+  </si>
+  <si>
+    <t>LGA-14_L3.0-W2.5-P0.50-TL</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>CH340K</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>ESOP-10_L4.9-W3.9-P1.00-LS6.2-BL-EP</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>OK-14F024-04</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>CONN-SMD_24P-P0.40_OK-14F024-04-H0189S002T002 V1</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>AW9364DNR</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>DFN-8_L2.0-W2.0-P0.50-BL-EP-1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>ANT3216LL00R2400A</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>ANT-SMD_L3.2-W1.6</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>PCF8563</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>40MHz</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>OSC-SMD_4P-L3.2-W2.5-BL_SIT8008BI</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>32.768kHz</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>FC-135R_L3.2-W1.5</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.89寸QSPI屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟店家说要2.54弯头的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?abbucket=17&amp;id=700030787687&amp;ns=1&amp;priceTId=215041b517168082372428772e8d0b&amp;spm=a21n57.1.item.4.12a8523cjcFFng&amp;skuId=5101866460322</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=r2ce6ade6cfd&amp;id=650683179648&amp;skuId=5021346002202&amp;spm=a1z09.2.0.0.50c52e8dVbk6c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要DCDC1输出3.3V的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=r2ce6ade0c42&amp;id=749355316056&amp;spm=a1z09.2.0.0.50c52e8dVbk6c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=r2ce6ade21ef&amp;id=724933845035&amp;spm=a1z09.2.0.0.50c52e8dVbk6c2&amp;skuId=5032270040356</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便宜好用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?_u=r2ce6ade9748&amp;id=743057187945&amp;spm=a1z09.2.0.0.50c52e8dVbk6c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在他们家买配套的线圈，方的那块，他选用的电容有要求，注意看nu1680的文档，结合我给的原理图，他的外围电容材质有要求，BOM表里我没标出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝搜det402，挑便宜的买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BC847BS,115</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>SOT-363_L2.0-W1.3-P0.65-LS2.1-TL</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>AO3401A</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>SOT-23_L2.9-W1.3-P1.90-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>AO3400A</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>SOT-23-3_L2.9-W1.3-P1.90-LS2.4-BR</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>10kΩ</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R0402</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>0Ω</t>
-  </si>
-  <si>
-    <t>R7,R17</t>
-  </si>
-  <si>
-    <t>R0603</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>R8,R18,R19,R21</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>200kΩ</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>100kΩ</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>220Ω</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R0805</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>RN1,RN2</t>
-  </si>
-  <si>
-    <t>RES-ARRAY-SMD_0603-8P-L3.2-W1.6-BL</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>ST-1186SEM</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW-SMD_ST-1186SEM</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>TF1</t>
-  </si>
-  <si>
-    <t>TF-SMD_TF-15-15</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>ESP32-S3(R8)</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>QFN-56_L7.0-W7.0-P0.40-TL-EP4.0</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>W25Q256JVEIQ</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>WSON-8_L6.0-W8.0-P1.27-BL-EP</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>BMP280</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>LGA-8_L2.5-W2.0-P0.65_AMP6127</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>AXP173</t>
-  </si>
-  <si>
-    <t>U9</t>
-  </si>
-  <si>
-    <t>QFN-32</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>NU1680</t>
-  </si>
-  <si>
-    <t>U10</t>
-  </si>
-  <si>
-    <t>QFN-16_L3.0-W3.0-P0.50-TL-EP1.9</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>排公排母1*2</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>4pin磁吸母座弯头</t>
-  </si>
-  <si>
-    <t>U12</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?abbucket=11id=650683179648ns=1skuId=5122831534673spm=a21n57.1.0.0.117b523cgsWeyZ</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>LSM6DS3TR-C</t>
-  </si>
-  <si>
-    <t>U13</t>
-  </si>
-  <si>
-    <t>LGA-14_L3.0-W2.5-P0.50-TL</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>CH340K</t>
-  </si>
-  <si>
-    <t>U14</t>
-  </si>
-  <si>
-    <t>ESOP-10_L4.9-W3.9-P1.00-LS6.2-BL-EP</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>OK-14F024-04</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>CONN-SMD_24P-P0.40_OK-14F024-04-H0189S002T002 V1</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>AW9364DNR</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>DFN-8_L2.0-W2.0-P0.50-BL-EP-1</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>ANT3216LL00R2400A</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>ANT-SMD_L3.2-W1.6</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>PCF8563</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>SOP-8_L4.9-W3.9-P1.27-LS6.0-BL</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>40MHz</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>OSC-SMD_4P-L3.2-W2.5-BL_SIT8008BI</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>FC-135R_L3.2-W1.5</t>
-  </si>
-  <si>
-    <t>Quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +605,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +618,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -592,14 +646,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -936,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F53" sqref="F52:F53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -947,7 +1007,8 @@
     <col min="1" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="7" max="7" width="115.875" customWidth="1"/>
+    <col min="8" max="8" width="40.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -955,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -993,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1464,13 +1525,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" t="s">
-        <v>78</v>
       </c>
       <c r="F23" t="s">
         <v>10</v>
@@ -1481,19 +1542,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
         <v>79</v>
       </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" t="s">
-        <v>82</v>
       </c>
       <c r="F24" t="s">
         <v>10</v>
@@ -1504,19 +1565,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>84</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>85</v>
-      </c>
-      <c r="E25" t="s">
-        <v>86</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1527,22 +1588,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" t="s">
-        <v>90</v>
-      </c>
       <c r="F26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s">
         <v>11</v>
@@ -1550,22 +1611,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
       <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s">
-        <v>94</v>
-      </c>
       <c r="F27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s">
         <v>11</v>
@@ -1573,22 +1634,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
         <v>11</v>
@@ -1596,22 +1657,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>98</v>
       </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G29" t="s">
         <v>11</v>
@@ -1619,22 +1680,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
         <v>11</v>
@@ -1642,22 +1703,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
-        <v>106</v>
-      </c>
       <c r="F31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G31" t="s">
         <v>11</v>
@@ -1665,42 +1726,42 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" t="s">
         <v>108</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>109</v>
       </c>
-      <c r="F32" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>111</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>112</v>
-      </c>
-      <c r="E33" t="s">
-        <v>113</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -1709,21 +1770,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
         <v>114</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>115</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>116</v>
-      </c>
-      <c r="E34" t="s">
-        <v>117</v>
       </c>
       <c r="F34" t="s">
         <v>10</v>
@@ -1732,21 +1793,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>119</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>120</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
       </c>
       <c r="F35" t="s">
         <v>10</v>
@@ -1755,21 +1816,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>123</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>124</v>
-      </c>
-      <c r="E36" t="s">
-        <v>125</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -1778,21 +1839,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
         <v>126</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>127</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>128</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1801,67 +1862,73 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>131</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>133</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+      <c r="H38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
         <v>134</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>135</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>136</v>
-      </c>
-      <c r="E39" t="s">
-        <v>137</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
       </c>
-      <c r="G39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G39" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
         <v>138</v>
       </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>139</v>
       </c>
-      <c r="D40" t="s">
-        <v>140</v>
-      </c>
       <c r="E40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F40" t="s">
         <v>10</v>
@@ -1870,44 +1937,47 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
         <v>141</v>
       </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" t="s">
-        <v>143</v>
-      </c>
       <c r="E41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
+      <c r="D42" t="s">
         <v>145</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>146</v>
-      </c>
-      <c r="D42" t="s">
-        <v>147</v>
-      </c>
-      <c r="E42" t="s">
-        <v>148</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1916,21 +1986,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
         <v>149</v>
       </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>150</v>
-      </c>
-      <c r="D43" t="s">
-        <v>151</v>
-      </c>
-      <c r="E43" t="s">
-        <v>152</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1939,21 +2009,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" t="s">
         <v>153</v>
       </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>154</v>
-      </c>
-      <c r="D44" t="s">
-        <v>155</v>
-      </c>
-      <c r="E44" t="s">
-        <v>156</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1962,67 +2032,70 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
         <v>157</v>
       </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
         <v>158</v>
       </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
         <v>159</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>160</v>
       </c>
-      <c r="F45" t="s">
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
         <v>161</v>
       </c>
-      <c r="G45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+      <c r="D46" t="s">
         <v>162</v>
       </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>163</v>
-      </c>
-      <c r="D46" t="s">
-        <v>164</v>
-      </c>
-      <c r="E46" t="s">
-        <v>165</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
       </c>
-      <c r="G46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D47" t="s">
         <v>166</v>
       </c>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>167</v>
-      </c>
-      <c r="D47" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" t="s">
-        <v>169</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -2031,24 +2104,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" t="s">
         <v>170</v>
       </c>
-      <c r="B48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="s">
-        <v>172</v>
-      </c>
-      <c r="E48" t="s">
-        <v>173</v>
-      </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G48" t="s">
         <v>11</v>
@@ -2056,34 +2129,50 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
         <v>174</v>
       </c>
-      <c r="B49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>175</v>
       </c>
-      <c r="D49" t="s">
-        <v>176</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
         <v>177</v>
       </c>
-      <c r="F49" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>10</v>
+      <c r="G50" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G50" r:id="rId1" xr:uid="{0D49E21D-FB2A-4FAC-A9D2-D18F928E317C}"/>
+    <hyperlink ref="G41" r:id="rId2" xr:uid="{787F2EDE-3DAE-4D44-A6BE-719D37A3C824}"/>
+    <hyperlink ref="G45" r:id="rId3" xr:uid="{2FC980E9-1A59-4C8C-BF59-F97DE3A22267}"/>
+    <hyperlink ref="G46" r:id="rId4" xr:uid="{3DFF3483-38EB-4E0E-A451-1A1D750D04D2}"/>
+    <hyperlink ref="G39" r:id="rId5" xr:uid="{2C30462B-16D0-4706-8945-12BEEA727AFC}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
